--- a/excel/sheetreader.xlsx
+++ b/excel/sheetreader.xlsx
@@ -172,74 +172,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -259,7 +191,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -517,7 +449,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -684,7 +616,7 @@
         <v>1.5</v>
       </c>
       <c r="M4" s="8">
-        <v>42519.349409664355</v>
+        <v>42519.349409722221</v>
       </c>
     </row>
     <row r="6" spans="1:13">
